--- a/Movies/! movie overview.xlsx
+++ b/Movies/! movie overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -5861,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="B123" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
